--- a/xlsx/标致308_intext.xlsx
+++ b/xlsx/标致308_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
   <si>
     <t>标致308</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB</t>
   </si>
   <si>
-    <t>標緻</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_标致308</t>
+    <t>标致</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_标致308</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A7%E5%87%91%E5%9E%8B%E8%BD%BF%E8%BD%A6</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C%E8%BB%8A</t>
   </si>
   <si>
-    <t>旅行車</t>
+    <t>旅行车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E8%87%B4307</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%9B%A7%E6%96%AF</t>
   </si>
   <si>
-    <t>米盧斯</t>
+    <t>米卢斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%BB%8D_(%E6%9D%9C%E7%9C%81)</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%88%BE%E5%B8%95%E6%B4%9B%E9%A6%AC</t>
   </si>
   <si>
-    <t>埃爾帕洛馬</t>
+    <t>埃尔帕洛马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E6%BC%A2</t>
   </si>
   <si>
-    <t>武漢</t>
+    <t>武汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E9%BE%8D%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>神龍汽車</t>
+    <t>神龙汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%8A%A0%E9%81%94</t>
   </si>
   <si>
-    <t>雅加達</t>
+    <t>雅加达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
@@ -137,37 +137,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%9B%A7%E5%8A%A0</t>
   </si>
   <si>
-    <t>卡盧加</t>
+    <t>卡卢加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>汽車設計</t>
+    <t>汽车设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%8E%E8%BB%8A</t>
   </si>
   <si>
-    <t>轎車</t>
+    <t>轿车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%8E%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>轎跑車</t>
+    <t>轿跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%BD%AE%E5%89%8D%E9%A9%85</t>
   </si>
   <si>
-    <t>前置前驅</t>
+    <t>前置前驱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BD%A6%E5%B9%B3%E5%8F%B0</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>渦輪引擎</t>
+    <t>涡轮引擎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Diesel_engine</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E8%87%AA%E5%8B%95%E8%AE%8A%E9%80%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>半自動變速器</t>
+    <t>半自动变速器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%B4%E8%B7%9D</t>
@@ -281,9 +281,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%BF%E8%BD%A6</t>
   </si>
   <si>
-    <t>轿车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/THP</t>
   </si>
   <si>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A0%E9%80%9F%E7%86%84%E7%81%AB%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>怠速熄火系統</t>
+    <t>怠速熄火系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E4%B8%96</t>
@@ -317,9 +314,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%BF%E8%B7%91%E8%BD%A6</t>
   </si>
   <si>
-    <t>轿跑车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%BF%AATT</t>
   </si>
   <si>
@@ -347,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%B9%B4%E5%BA%A6%E9%A2%A8%E9%9B%B2%E8%BB%8A</t>
   </si>
   <si>
-    <t>歐洲年度風雲車</t>
+    <t>欧洲年度风云车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -365,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB107</t>
   </si>
   <si>
-    <t>標緻107</t>
+    <t>标致107</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E7%B4%A7%E5%87%91%E5%9E%8B%E8%BD%A6</t>
@@ -383,25 +377,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB106</t>
   </si>
   <si>
-    <t>標緻106</t>
+    <t>标致106</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB207</t>
   </si>
   <si>
-    <t>標緻207</t>
+    <t>标致207</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB208</t>
   </si>
   <si>
-    <t>標緻208</t>
+    <t>标致208</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB205</t>
   </si>
   <si>
-    <t>標緻205</t>
+    <t>标致205</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E8%87%B4206</t>
@@ -425,19 +419,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB407</t>
   </si>
   <si>
-    <t>標緻407</t>
+    <t>标致407</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB508</t>
   </si>
   <si>
-    <t>標緻508</t>
+    <t>标致508</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB505</t>
   </si>
   <si>
-    <t>標緻505</t>
+    <t>标致505</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MPV</t>
@@ -449,13 +443,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E7%95%8C%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>跨界休旅車</t>
+    <t>跨界休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB2008</t>
   </si>
   <si>
-    <t>標緻2008</t>
+    <t>标致2008</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SUV</t>
@@ -2172,7 +2166,7 @@
         <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="G47" t="n">
         <v>7</v>
@@ -2198,10 +2192,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
         <v>89</v>
-      </c>
-      <c r="F48" t="s">
-        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>3</v>
@@ -2285,10 +2279,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" t="s">
         <v>91</v>
-      </c>
-      <c r="F51" t="s">
-        <v>92</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2343,10 +2337,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" t="s">
         <v>93</v>
-      </c>
-      <c r="F53" t="s">
-        <v>94</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2372,10 +2366,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" t="s">
         <v>95</v>
-      </c>
-      <c r="F54" t="s">
-        <v>96</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2401,10 +2395,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" t="s">
         <v>97</v>
-      </c>
-      <c r="F55" t="s">
-        <v>98</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2430,10 +2424,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F56" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2459,10 +2453,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F57" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2517,10 +2511,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F59" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -2546,10 +2540,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2575,10 +2569,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2604,10 +2598,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F62" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2633,10 +2627,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F63" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2662,10 +2656,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F64" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2691,10 +2685,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2720,10 +2714,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F66" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2749,10 +2743,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F67" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2778,10 +2772,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F68" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2807,10 +2801,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2836,10 +2830,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F70" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -2865,10 +2859,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F71" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -2894,10 +2888,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F72" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -2923,10 +2917,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F73" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3010,10 +3004,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F76" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3039,10 +3033,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F77" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3068,10 +3062,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F78" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3097,10 +3091,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F79" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -3126,10 +3120,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F80" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3155,10 +3149,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F81" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -3184,10 +3178,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F82" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3213,10 +3207,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F83" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
@@ -3242,10 +3236,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F84" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3271,10 +3265,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F85" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
